--- a/CACAPAVA_DO_SUL.xlsx
+++ b/CACAPAVA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{496970AF-D027-4638-AB7C-CED5A9E82D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED28E6D-9DE9-4417-B661-0E95A7D9F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1080,7 +1067,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1140,36 +1127,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,14 +1171,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,7 +1219,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9AA106A9-12B4-475E-916F-750B20F2BED4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D8FF8F22-D8D9-40E2-9C75-0BFF1F27A6EB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,10 +1249,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778F0310-72E7-4F03-A74C-E744C0F464D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9886BF63-EA3C-4139-8BFE-75883EB2A9AF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1332,7 +1290,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E033AC-7E96-43DA-AA70-1C2A1C20711A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8B8728-6281-4864-BB32-6C64F07A11FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B3EBC0-6EB6-49DF-9430-893BF5E5DEF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6463254E-01C7-4C16-B6F3-B382DF629114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1372,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07391F21-6CFC-D0F1-6E01-00DD9C80088C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986BE5D-3905-B37D-1627-7FBAC5736638}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1463,7 +1421,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E7ABC1-210A-5A55-A81F-6122B24CFA07}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EFA2F1-3EE2-C1C6-7FC8-385B3067AA02}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1482,7 +1440,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDCF6F8-AF81-045B-70EE-7D2DE437A47F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9EC917-8E50-1BDE-6813-E85B230608B3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1471,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE52376B-C5BC-1B26-FACF-E060D6C06307}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AE5F7A-15A7-CFD0-FA6C-B889AAC8EAFC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1544,7 +1502,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95741C0-B842-4A37-6E8C-DE296544207A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C7E248-B44C-4B58-C335-851E2F3906B2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1587,7 +1545,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F2574E-80D6-4308-B75D-B43C8948DA45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A780169-2950-4A93-83D1-07007EA2D4BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1583,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA43ADC-2100-4D90-A04A-50D2EFBE3C17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B12DCB1-60E0-4C5B-ACA7-55A61A7379D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1626,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F45262-A15A-4B54-9101-ABA7573CEB8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5506A65F-0893-42FC-B735-5376146EBBEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC551AF8-FCA9-4321-BC5A-7E79A2AC3F06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E808C7EC-A5E7-4F37-9E24-087B2F383C1B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1993,98 +1951,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5380,19 +5338,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5415,46 +5373,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5479,54 +5437,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5537,43 +5496,43 @@
       <c r="B2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45078</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>2572</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>4704</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>939</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>303</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5604,25 +5563,24 @@
       <c r="B1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="32">
         <v>60</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="35">
-        <v>60</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>3.9677291363576254E-3</v>
       </c>
     </row>

--- a/CACAPAVA_DO_SUL.xlsx
+++ b/CACAPAVA_DO_SUL.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED28E6D-9DE9-4417-B661-0E95A7D9F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54189106-A13A-4470-B529-D69811BF254B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="311">
   <si>
     <t>COMARCA</t>
   </si>
@@ -947,6 +948,18 @@
   </si>
   <si>
     <t>CAÇAPAVA DO SUL</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -956,7 +969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,6 +1022,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1023,7 +1049,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,6 +1084,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1130,9 +1162,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,12 +1246,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D8FF8F22-D8D9-40E2-9C75-0BFF1F27A6EB}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{469EC129-7F21-4D78-8993-DD934FCA565A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1285,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9886BF63-EA3C-4139-8BFE-75883EB2A9AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A3A4C3-4A93-40B3-8BC3-31FBE811F488}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1326,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8B8728-6281-4864-BB32-6C64F07A11FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA839D-9F8B-4044-AA0C-BAEB6DEA9BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1389,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6463254E-01C7-4C16-B6F3-B382DF629114}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1695E8E-E1FA-4A01-8D8C-3D05DA6E689A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1408,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C986BE5D-3905-B37D-1627-7FBAC5736638}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50C68D8-8154-37B0-D121-5DDEB77B7E32}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1457,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EFA2F1-3EE2-C1C6-7FC8-385B3067AA02}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998D28E7-64A3-F69E-F948-172B87F994B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1476,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9EC917-8E50-1BDE-6813-E85B230608B3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4842D826-A981-7B6F-CA4D-94DE7A7A12B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1507,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AE5F7A-15A7-CFD0-FA6C-B889AAC8EAFC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FEA7D5-8F35-8F22-0A4D-758F31CF7CDF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1538,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C7E248-B44C-4B58-C335-851E2F3906B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D1AB9-A9B8-1F7F-3992-DD72C3017341}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1581,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A780169-2950-4A93-83D1-07007EA2D4BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EA087C-3554-4164-919C-03EA0D9BC9C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1619,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B12DCB1-60E0-4C5B-ACA7-55A61A7379D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71A812A-FE5A-4F4D-B788-9E7F8FDF2942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1662,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5506A65F-0893-42FC-B735-5376146EBBEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501F6459-346C-46BD-8A2D-72235C98F78D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E808C7EC-A5E7-4F37-9E24-087B2F383C1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396EDCCE-014E-4867-B08C-7D01735CF3D1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,98 +1987,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5587,4 +5623,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/CACAPAVA_DO_SUL.xlsx
+++ b/CACAPAVA_DO_SUL.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54189106-A13A-4470-B529-D69811BF254B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{930B47F9-2F4C-4002-9F24-1317AAF1326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="308">
   <si>
     <t>COMARCA</t>
   </si>
@@ -939,15 +938,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>CAÇAPAVA DO SUL</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1164,7 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,21 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,7 +1230,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{469EC129-7F21-4D78-8993-DD934FCA565A}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5DF26AEB-565A-440F-B6F2-9D6B51C2430B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1285,10 +1260,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A3A4C3-4A93-40B3-8BC3-31FBE811F488}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE7817-3F74-49DF-8846-BD2F91E06F37}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1301,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA839D-9F8B-4044-AA0C-BAEB6DEA9BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73392E15-5E7D-4A71-BD6C-AD311518E2E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1364,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1695E8E-E1FA-4A01-8D8C-3D05DA6E689A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8368E4C4-075C-46A4-A10B-13FBD31F5FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1383,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50C68D8-8154-37B0-D121-5DDEB77B7E32}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0F772C-86E1-4C44-62FC-342DECA4949F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1457,7 +1432,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998D28E7-64A3-F69E-F948-172B87F994B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C8460E-FEF8-AD77-470D-1A3B0B6A3AC3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1476,7 +1451,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4842D826-A981-7B6F-CA4D-94DE7A7A12B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25B77C5-F8EC-B3FF-B660-0FC0F17BB452}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1507,7 +1482,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FEA7D5-8F35-8F22-0A4D-758F31CF7CDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFECE6-D911-6FAA-D721-F1BCC3C35BFE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1538,7 +1513,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8D1AB9-A9B8-1F7F-3992-DD72C3017341}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7751AC69-0D98-A7AC-81B7-038B1E87032B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,7 +1556,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41EA087C-3554-4164-919C-03EA0D9BC9C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E1441C-9400-4AB3-9AD9-3102C9A7E053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1594,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71A812A-FE5A-4F4D-B788-9E7F8FDF2942}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DA5544-7BCD-451D-BB8A-F5E6427B9D4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1662,7 +1637,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501F6459-346C-46BD-8A2D-72235C98F78D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E83628-D765-4A68-8AB8-237878DCA6CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396EDCCE-014E-4867-B08C-7D01735CF3D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA6B8D7-53AE-486D-AA79-E1F866D9B02A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1987,98 +1962,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5579,54 +5554,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="32">
-        <v>60</v>
-      </c>
-      <c r="C2" s="30">
-        <v>3.9677291363576254E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5639,25 +5566,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>307</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/CACAPAVA_DO_SUL.xlsx
+++ b/CACAPAVA_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930B47F9-2F4C-4002-9F24-1317AAF1326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4511B3BD-27DC-485E-86AE-35817092AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1230,7 +1230,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5DF26AEB-565A-440F-B6F2-9D6B51C2430B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9FFABB3B-F3B2-4CBB-B28E-EA54C4815142}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,10 +1260,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCE7817-3F74-49DF-8846-BD2F91E06F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1C9BCF-515A-46B3-88F1-4A7E92E84131}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1301,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73392E15-5E7D-4A71-BD6C-AD311518E2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506FF9F1-634B-4E2A-89A1-A693446BE59B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8368E4C4-075C-46A4-A10B-13FBD31F5FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672C6EC-EE4C-4874-B002-F5E287A4CCDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1383,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0F772C-86E1-4C44-62FC-342DECA4949F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853DDA98-BEA8-5432-0B68-7F734B4B6E25}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1432,7 +1432,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C8460E-FEF8-AD77-470D-1A3B0B6A3AC3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671D0DB4-F686-B011-C3D4-6944DAF80E3C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1451,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25B77C5-F8EC-B3FF-B660-0FC0F17BB452}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92650A2-AEEB-E146-934A-B1DF7B97C227}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,7 +1482,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFECE6-D911-6FAA-D721-F1BCC3C35BFE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09D1DA8-F09A-66AC-8EB5-DC4967FDB869}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7751AC69-0D98-A7AC-81B7-038B1E87032B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385C30B9-F088-71A1-4E15-1396819630B1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1556,7 +1556,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E1441C-9400-4AB3-9AD9-3102C9A7E053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A7A4FD-69F1-4C07-A58F-FA5D42650AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1594,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DA5544-7BCD-451D-BB8A-F5E6427B9D4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F54B75D-A958-422D-955B-87D932DA3655}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,50 +1619,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E83628-D765-4A68-8AB8-237878DCA6CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1950,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA6B8D7-53AE-486D-AA79-E1F866D9B02A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F121204E-53BE-417A-A38E-09A890F331E3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
